--- a/data/hp5.xlsx
+++ b/data/hp5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08341DCE-1BE2-4648-8BA7-60DDF0EC0EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415D54CC-EFFA-47A2-A796-1FEA87D8E787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{71F3B254-D834-48D6-896A-AB543C582BAE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{71F3B254-D834-48D6-896A-AB543C582BAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Fix" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
   <si>
     <t>YM</t>
   </si>
@@ -177,6 +177,21 @@
   </si>
   <si>
     <t>NAME_LIST</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Indah Water</t>
+  </si>
+  <si>
+    <t>Babadona</t>
+  </si>
+  <si>
+    <t>Kitchen sink</t>
+  </si>
+  <si>
+    <t>Medeena</t>
   </si>
 </sst>
 </file>
@@ -538,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D5D203-0C04-42E9-AEC1-15DC6C52D607}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,6 +600,20 @@
         <v>18.61</v>
       </c>
       <c r="D3">
+        <v>145.22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>202307</v>
+      </c>
+      <c r="B4">
+        <v>133.75</v>
+      </c>
+      <c r="C4">
+        <v>10.85</v>
+      </c>
+      <c r="D4">
         <v>145.22</v>
       </c>
     </row>
@@ -597,7 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0B2E29-0183-44EB-9798-5312EE792D36}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -681,10 +710,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BF485C-814D-4484-9068-139F7344D8D7}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,7 +722,7 @@
     <col min="6" max="6" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -712,8 +741,11 @@
       <c r="F1" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>202305</v>
       </c>
@@ -732,8 +764,11 @@
       <c r="F2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>202305</v>
       </c>
@@ -752,8 +787,11 @@
       <c r="F3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>202305</v>
       </c>
@@ -772,8 +810,11 @@
       <c r="F4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>202305</v>
       </c>
@@ -792,8 +833,11 @@
       <c r="F5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>202306</v>
       </c>
@@ -812,8 +856,11 @@
       <c r="F6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>202306</v>
       </c>
@@ -832,8 +879,11 @@
       <c r="F7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>202306</v>
       </c>
@@ -852,8 +902,11 @@
       <c r="F8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>202306</v>
       </c>
@@ -871,6 +924,32 @@
       </c>
       <c r="F9" t="s">
         <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>202307</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>60</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
